--- a/src/main/resources/TestData1.xlsx
+++ b/src/main/resources/TestData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14586AD8-A12F-4FCE-9EA6-96DAFDA6DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB870186-BF8E-4D04-9607-2E1B930BCAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{7B19FC7C-8611-47E6-9F0D-913DBE43F828}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Add User" sheetId="2" r:id="rId2"/>
     <sheet name="Role Search" sheetId="3" r:id="rId3"/>
     <sheet name="LoginPageDataProvider" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Reset Page" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,85 +58,85 @@
     <t>These credentials do not match our records.</t>
   </si>
   <si>
+    <t>Prefix:</t>
+  </si>
+  <si>
+    <t>Mis</t>
+  </si>
+  <si>
+    <t>First Name:*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anu </t>
+  </si>
+  <si>
+    <t>Last Name:</t>
+  </si>
+  <si>
+    <t>Mol</t>
+  </si>
+  <si>
+    <t>Email:*</t>
+  </si>
+  <si>
+    <t>anu@gmail.com</t>
+  </si>
+  <si>
+    <t>Role:*</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Username:</t>
+  </si>
+  <si>
+    <t>Anu Mol</t>
+  </si>
+  <si>
+    <t>Password:*</t>
+  </si>
+  <si>
+    <t>anu@111</t>
+  </si>
+  <si>
+    <t>Confirm Password:*</t>
+  </si>
+  <si>
+    <t>Sales Commission Percentage (%)</t>
+  </si>
+  <si>
+    <t>expError Message</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role </t>
+  </si>
+  <si>
+    <t>grace123@gmail.com</t>
+  </si>
+  <si>
+    <t>qwe2345</t>
+  </si>
+  <si>
+    <t>grace@gmail.com</t>
+  </si>
+  <si>
+    <t>erhuk23456</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>rose@gmail.com</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
     <t>grace</t>
-  </si>
-  <si>
-    <t>Prefix:</t>
-  </si>
-  <si>
-    <t>Mis</t>
-  </si>
-  <si>
-    <t>First Name:*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anu </t>
-  </si>
-  <si>
-    <t>Last Name:</t>
-  </si>
-  <si>
-    <t>Mol</t>
-  </si>
-  <si>
-    <t>Email:*</t>
-  </si>
-  <si>
-    <t>anu@gmail.com</t>
-  </si>
-  <si>
-    <t>Role:*</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Username:</t>
-  </si>
-  <si>
-    <t>Anu Mol</t>
-  </si>
-  <si>
-    <t>Password:*</t>
-  </si>
-  <si>
-    <t>anu@111</t>
-  </si>
-  <si>
-    <t>Confirm Password:*</t>
-  </si>
-  <si>
-    <t>Sales Commission Percentage (%)</t>
-  </si>
-  <si>
-    <t>expError Message</t>
-  </si>
-  <si>
-    <t>No matching records found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role </t>
-  </si>
-  <si>
-    <t>grace123@gmail.com</t>
-  </si>
-  <si>
-    <t>qwe2345</t>
-  </si>
-  <si>
-    <t>grace@gmail.com</t>
-  </si>
-  <si>
-    <t>erhuk23456</t>
-  </si>
-  <si>
-    <t>email id</t>
-  </si>
-  <si>
-    <t>rose@gmail.com</t>
-  </si>
-  <si>
-    <t>We can't find a user with that e-mail address.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,71 +584,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +684,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -711,18 +711,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -746,10 +746,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
